--- a/LOGS/f73f0ea6-6bc6-4a2e-a2c0-3d2005b3313e/main_page_service_output/main_pages.xlsx
+++ b/LOGS/f73f0ea6-6bc6-4a2e-a2c0-3d2005b3313e/main_page_service_output/main_pages.xlsx
@@ -1046,10 +1046,10 @@
         <v>1029285282</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1311,7 +1311,7 @@
         <v>56</v>
       </c>
       <c r="F34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1328,7 +1328,7 @@
         <v>56</v>
       </c>
       <c r="F35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:6">
